--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H2">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I2">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J2">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N2">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O2">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P2">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q2">
-        <v>69.91224595963386</v>
+        <v>76.34447698355601</v>
       </c>
       <c r="R2">
-        <v>69.91224595963386</v>
+        <v>687.1002928520041</v>
       </c>
       <c r="S2">
-        <v>0.2449822982693084</v>
+        <v>0.2482662849755761</v>
       </c>
       <c r="T2">
-        <v>0.2449822982693084</v>
+        <v>0.2482662849755761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H3">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I3">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J3">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N3">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O3">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P3">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q3">
-        <v>131.7339699082383</v>
+        <v>134.8210677328624</v>
       </c>
       <c r="R3">
-        <v>131.7339699082383</v>
+        <v>1213.389609595762</v>
       </c>
       <c r="S3">
-        <v>0.4616142746564559</v>
+        <v>0.438427597450013</v>
       </c>
       <c r="T3">
-        <v>0.4616142746564559</v>
+        <v>0.438427597450013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H4">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I4">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J4">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N4">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O4">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P4">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q4">
-        <v>26.28300998509391</v>
+        <v>32.20537683120278</v>
       </c>
       <c r="R4">
-        <v>26.28300998509391</v>
+        <v>289.848391480825</v>
       </c>
       <c r="S4">
-        <v>0.09209934687695746</v>
+        <v>0.1047293737285459</v>
       </c>
       <c r="T4">
-        <v>0.09209934687695746</v>
+        <v>0.1047293737285459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H5">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I5">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J5">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43062979541897</v>
+        <v>1.521928</v>
       </c>
       <c r="N5">
-        <v>1.43062979541897</v>
+        <v>4.565784000000001</v>
       </c>
       <c r="O5">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="P5">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="Q5">
-        <v>40.85308993243496</v>
+        <v>43.97508631707468</v>
       </c>
       <c r="R5">
-        <v>40.85308993243496</v>
+        <v>395.7757768536721</v>
       </c>
       <c r="S5">
-        <v>0.1431549469720837</v>
+        <v>0.1430035510462921</v>
       </c>
       <c r="T5">
-        <v>0.1431549469720837</v>
+        <v>0.143003551046292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.161072955130022</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H6">
-        <v>0.161072955130022</v>
+        <v>0.567964</v>
       </c>
       <c r="I6">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J6">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N6">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O6">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P6">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q6">
-        <v>0.3943467232477757</v>
+        <v>0.500224069648</v>
       </c>
       <c r="R6">
-        <v>0.3943467232477757</v>
+        <v>4.502016626832001</v>
       </c>
       <c r="S6">
-        <v>0.001381846130819353</v>
+        <v>0.00162668966156677</v>
       </c>
       <c r="T6">
-        <v>0.001381846130819353</v>
+        <v>0.001626689661566771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.161072955130022</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H7">
-        <v>0.161072955130022</v>
+        <v>0.567964</v>
       </c>
       <c r="I7">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J7">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N7">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O7">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P7">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q7">
-        <v>0.7430580817519328</v>
+        <v>0.883374224832889</v>
       </c>
       <c r="R7">
-        <v>0.7430580817519328</v>
+        <v>7.950368023496001</v>
       </c>
       <c r="S7">
-        <v>0.002603779554161035</v>
+        <v>0.002872664084000192</v>
       </c>
       <c r="T7">
-        <v>0.002603779554161035</v>
+        <v>0.002872664084000192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.161072955130022</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H8">
-        <v>0.161072955130022</v>
+        <v>0.567964</v>
       </c>
       <c r="I8">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J8">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N8">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O8">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P8">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q8">
-        <v>0.1482518366052023</v>
+        <v>0.2110159804555556</v>
       </c>
       <c r="R8">
-        <v>0.1482518366052023</v>
+        <v>1.8991438241</v>
       </c>
       <c r="S8">
-        <v>0.0005194951922322513</v>
+        <v>0.0006862075111139152</v>
       </c>
       <c r="T8">
-        <v>0.0005194951922322513</v>
+        <v>0.0006862075111139152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.161072955130022</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H9">
-        <v>0.161072955130022</v>
+        <v>0.567964</v>
       </c>
       <c r="I9">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J9">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43062979541897</v>
+        <v>1.521928</v>
       </c>
       <c r="N9">
-        <v>1.43062979541897</v>
+        <v>4.565784000000001</v>
       </c>
       <c r="O9">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="P9">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="Q9">
-        <v>0.2304357688451923</v>
+        <v>0.2881334381973334</v>
       </c>
       <c r="R9">
-        <v>0.2304357688451923</v>
+        <v>2.593200943776</v>
       </c>
       <c r="S9">
-        <v>0.0008074791973890398</v>
+        <v>0.0009369874692297589</v>
       </c>
       <c r="T9">
-        <v>0.0008074791973890398</v>
+        <v>0.0009369874692297589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21442403020924</v>
+        <v>1.339639</v>
       </c>
       <c r="H10">
-        <v>1.21442403020924</v>
+        <v>4.018917</v>
       </c>
       <c r="I10">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J10">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N10">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O10">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P10">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q10">
-        <v>2.973212582831105</v>
+        <v>3.539588807244</v>
       </c>
       <c r="R10">
-        <v>2.973212582831105</v>
+        <v>31.856299265196</v>
       </c>
       <c r="S10">
-        <v>0.01041855317029505</v>
+        <v>0.01151046674541862</v>
       </c>
       <c r="T10">
-        <v>0.01041855317029505</v>
+        <v>0.01151046674541862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21442403020924</v>
+        <v>1.339639</v>
       </c>
       <c r="H11">
-        <v>1.21442403020924</v>
+        <v>4.018917</v>
       </c>
       <c r="I11">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J11">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N11">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O11">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P11">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q11">
-        <v>5.602353229269928</v>
+        <v>6.250761825648667</v>
       </c>
       <c r="R11">
-        <v>5.602353229269928</v>
+        <v>56.25685643083801</v>
       </c>
       <c r="S11">
-        <v>0.01963143010189479</v>
+        <v>0.02032698995442985</v>
       </c>
       <c r="T11">
-        <v>0.01963143010189479</v>
+        <v>0.02032698995442985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.21442403020924</v>
+        <v>1.339639</v>
       </c>
       <c r="H12">
-        <v>1.21442403020924</v>
+        <v>4.018917</v>
       </c>
       <c r="I12">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J12">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N12">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O12">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P12">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q12">
-        <v>1.117758054110812</v>
+        <v>1.493150465741667</v>
       </c>
       <c r="R12">
-        <v>1.117758054110812</v>
+        <v>13.438354191675</v>
       </c>
       <c r="S12">
-        <v>0.003916780719120394</v>
+        <v>0.004855608862433892</v>
       </c>
       <c r="T12">
-        <v>0.003916780719120394</v>
+        <v>0.004855608862433891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.21442403020924</v>
+        <v>1.339639</v>
       </c>
       <c r="H13">
-        <v>1.21442403020924</v>
+        <v>4.018917</v>
       </c>
       <c r="I13">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J13">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.43062979541897</v>
+        <v>1.521928</v>
       </c>
       <c r="N13">
-        <v>1.43062979541897</v>
+        <v>4.565784000000001</v>
       </c>
       <c r="O13">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="P13">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="Q13">
-        <v>1.737391201890126</v>
+        <v>2.038834103992</v>
       </c>
       <c r="R13">
-        <v>1.737391201890126</v>
+        <v>18.349506935928</v>
       </c>
       <c r="S13">
-        <v>0.006088062023893075</v>
+        <v>0.006630129495662497</v>
       </c>
       <c r="T13">
-        <v>0.006088062023893075</v>
+        <v>0.006630129495662497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387529140344346</v>
+        <v>0.4986926666666666</v>
       </c>
       <c r="H14">
-        <v>0.387529140344346</v>
+        <v>1.496078</v>
       </c>
       <c r="I14">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571743</v>
       </c>
       <c r="J14">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571742</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.44824913611009</v>
+        <v>2.642196</v>
       </c>
       <c r="N14">
-        <v>2.44824913611009</v>
+        <v>7.926588000000001</v>
       </c>
       <c r="O14">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="P14">
-        <v>0.2601073130698548</v>
+        <v>0.26568831615543</v>
       </c>
       <c r="Q14">
-        <v>0.9487678830655308</v>
+        <v>1.317643769096</v>
       </c>
       <c r="R14">
-        <v>0.9487678830655308</v>
+        <v>11.858793921864</v>
       </c>
       <c r="S14">
-        <v>0.003324615499431989</v>
+        <v>0.00428487477286851</v>
       </c>
       <c r="T14">
-        <v>0.003324615499431989</v>
+        <v>0.00428487477286851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387529140344346</v>
+        <v>0.4986926666666666</v>
       </c>
       <c r="H15">
-        <v>0.387529140344346</v>
+        <v>1.496078</v>
       </c>
       <c r="I15">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571743</v>
       </c>
       <c r="J15">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571742</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.61317718515885</v>
+        <v>4.666004666666667</v>
       </c>
       <c r="N15">
-        <v>4.61317718515885</v>
+        <v>13.998014</v>
       </c>
       <c r="O15">
-        <v>0.4901139776376369</v>
+        <v>0.469194156323015</v>
       </c>
       <c r="P15">
-        <v>0.4901139776376369</v>
+        <v>0.4691941563230151</v>
       </c>
       <c r="Q15">
-        <v>1.787740588820759</v>
+        <v>2.326902309899111</v>
       </c>
       <c r="R15">
-        <v>1.787740588820759</v>
+        <v>20.942120789092</v>
       </c>
       <c r="S15">
-        <v>0.00626449332512518</v>
+        <v>0.007566904834571977</v>
       </c>
       <c r="T15">
-        <v>0.00626449332512518</v>
+        <v>0.007566904834571976</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387529140344346</v>
+        <v>0.4986926666666666</v>
       </c>
       <c r="H16">
-        <v>0.387529140344346</v>
+        <v>1.496078</v>
       </c>
       <c r="I16">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571743</v>
       </c>
       <c r="J16">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571742</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.920401792377434</v>
+        <v>1.114591666666667</v>
       </c>
       <c r="N16">
-        <v>0.920401792377434</v>
+        <v>3.343775</v>
       </c>
       <c r="O16">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="P16">
-        <v>0.09778548826135786</v>
+        <v>0.1120787341732184</v>
       </c>
       <c r="Q16">
-        <v>0.3566825153714222</v>
+        <v>0.5558386904944443</v>
       </c>
       <c r="R16">
-        <v>0.3566825153714222</v>
+        <v>5.002548214449999</v>
       </c>
       <c r="S16">
-        <v>0.001249865473047757</v>
+        <v>0.001807544071124726</v>
       </c>
       <c r="T16">
-        <v>0.001249865473047757</v>
+        <v>0.001807544071124726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.387529140344346</v>
+        <v>0.4986926666666666</v>
       </c>
       <c r="H17">
-        <v>0.387529140344346</v>
+        <v>1.496078</v>
       </c>
       <c r="I17">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571743</v>
       </c>
       <c r="J17">
-        <v>0.01278170713538964</v>
+        <v>0.01612744901571742</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.43062979541897</v>
+        <v>1.521928</v>
       </c>
       <c r="N17">
-        <v>1.43062979541897</v>
+        <v>4.565784000000001</v>
       </c>
       <c r="O17">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="P17">
-        <v>0.1519932210311505</v>
+        <v>0.1530387933483365</v>
       </c>
       <c r="Q17">
-        <v>0.554410734769721</v>
+        <v>0.7589743327946666</v>
       </c>
       <c r="R17">
-        <v>0.554410734769721</v>
+        <v>6.830768995152</v>
       </c>
       <c r="S17">
-        <v>0.001942732837784711</v>
+        <v>0.002468125337152212</v>
       </c>
       <c r="T17">
-        <v>0.001942732837784711</v>
+        <v>0.002468125337152212</v>
       </c>
     </row>
   </sheetData>
